--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -807,7 +807,7 @@
     <t>Observation.category:microbiology.coding.system</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
   </si>
   <si>
     <t>Observation.category:microbiology.coding.version</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -807,7 +807,7 @@
     <t>Observation.category:microbiology.coding.system</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_Loinc_CS</t>
+    <t>http://loinc.org</t>
   </si>
   <si>
     <t>Observation.category:microbiology.coding.version</t>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -940,6 +940,57 @@
 </t>
   </si>
   <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default</t>
+  </si>
+  <si>
+    <t>@default</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:@default.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent</t>
   </si>
   <si>
@@ -962,46 +1013,25 @@
     <t>Observation.code.coding:infectious-agent.id</t>
   </si>
   <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent.extension</t>
   </si>
   <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent.system</t>
   </si>
   <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
     <t>urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent.version</t>
   </si>
   <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent.code</t>
   </si>
   <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent.display</t>
   </si>
   <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug</t>
@@ -2150,7 +2180,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP114"/>
+  <dimension ref="A1:AP122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2187,7 +2217,7 @@
     <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -8665,7 +8695,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>156</v>
+        <v>296</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>183</v>
@@ -8703,13 +8733,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8719,7 +8749,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8734,13 +8764,13 @@
         <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>300</v>
+        <v>181</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>182</v>
@@ -8768,11 +8798,13 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8825,10 +8857,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8943,10 +8975,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9063,10 +9095,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9108,7 +9140,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9185,10 +9217,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9305,10 +9337,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9425,10 +9457,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9545,10 +9577,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9667,13 +9699,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9698,13 +9730,13 @@
         <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>182</v>
@@ -9736,7 +9768,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9789,10 +9821,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9907,10 +9939,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10027,10 +10059,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10072,7 +10104,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10149,10 +10181,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10269,10 +10301,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10389,10 +10421,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10509,10 +10541,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10631,13 +10663,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10662,13 +10694,13 @@
         <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>182</v>
@@ -10700,7 +10732,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10753,10 +10785,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10871,10 +10903,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10991,10 +11023,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11036,7 +11068,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11113,10 +11145,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11233,10 +11265,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11353,10 +11385,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11473,10 +11505,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11595,12 +11627,14 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="D79" t="s" s="2">
         <v>41</v>
       </c>
@@ -11621,19 +11655,19 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>236</v>
+        <v>343</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>238</v>
+        <v>345</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11658,13 +11692,11 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>41</v>
+        <v>346</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11682,13 +11714,13 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
@@ -11703,10 +11735,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11717,10 +11749,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>346</v>
+        <v>300</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11728,7 +11760,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>52</v>
@@ -11740,23 +11772,19 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>348</v>
+        <v>166</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11804,7 +11832,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>346</v>
+        <v>168</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11816,22 +11844,22 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>352</v>
+        <v>41</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>353</v>
+        <v>41</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>354</v>
+        <v>169</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11839,14 +11867,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11862,19 +11890,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>357</v>
+        <v>98</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>358</v>
+        <v>99</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>359</v>
+        <v>172</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>360</v>
+        <v>101</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11912,19 +11940,19 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>41</v>
+        <v>156</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>356</v>
+        <v>175</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11936,7 +11964,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11945,13 +11973,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>361</v>
+        <v>169</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>355</v>
+        <v>41</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11959,18 +11987,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>362</v>
+        <v>304</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>363</v>
+        <v>41</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>52</v>
@@ -11985,26 +12013,26 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>364</v>
+        <v>66</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>365</v>
+        <v>192</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>366</v>
+        <v>193</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>367</v>
+        <v>194</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>368</v>
+        <v>195</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>41</v>
@@ -12046,7 +12074,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12061,19 +12089,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>369</v>
+        <v>41</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>370</v>
+        <v>198</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>371</v>
+        <v>199</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>372</v>
+        <v>41</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12081,14 +12109,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>373</v>
+        <v>351</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>373</v>
+        <v>306</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12107,20 +12135,18 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>375</v>
+        <v>165</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>376</v>
+        <v>202</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>376</v>
+        <v>203</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>41</v>
       </c>
@@ -12168,7 +12194,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>373</v>
+        <v>205</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12183,19 +12209,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>380</v>
+        <v>206</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>381</v>
+        <v>207</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12203,10 +12229,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>383</v>
+        <v>308</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12229,18 +12255,18 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>384</v>
+        <v>72</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>385</v>
+        <v>210</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O84" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>41</v>
       </c>
@@ -12288,7 +12314,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>383</v>
+        <v>213</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12309,13 +12335,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>388</v>
+        <v>214</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>389</v>
+        <v>215</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>390</v>
+        <v>41</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12323,10 +12349,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>391</v>
+        <v>353</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>391</v>
+        <v>310</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12337,7 +12363,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12349,19 +12375,17 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>392</v>
+        <v>165</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>393</v>
+        <v>218</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>396</v>
+        <v>220</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12410,13 +12434,13 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>391</v>
+        <v>221</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
@@ -12425,19 +12449,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>397</v>
+        <v>41</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>398</v>
+        <v>222</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>399</v>
+        <v>223</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12445,10 +12469,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>401</v>
+        <v>354</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12471,19 +12495,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>402</v>
+        <v>226</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>403</v>
+        <v>227</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>404</v>
+        <v>228</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>405</v>
+        <v>229</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>406</v>
+        <v>230</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12532,7 +12556,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12541,7 +12565,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12550,27 +12574,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>408</v>
+        <v>41</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>409</v>
+        <v>232</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>410</v>
+        <v>233</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12590,22 +12614,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>413</v>
+        <v>236</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>414</v>
+        <v>237</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>415</v>
+        <v>238</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>416</v>
+        <v>239</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12630,13 +12654,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12654,7 +12678,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>412</v>
+        <v>240</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12663,7 +12687,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12675,10 +12699,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>421</v>
+        <v>242</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12689,21 +12713,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -12712,22 +12736,22 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>149</v>
+        <v>357</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>424</v>
+        <v>358</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>425</v>
+        <v>359</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>426</v>
+        <v>360</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>427</v>
+        <v>361</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12752,13 +12776,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>428</v>
+        <v>41</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12776,13 +12800,13 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>422</v>
+        <v>356</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
@@ -12791,30 +12815,30 @@
         <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>41</v>
+        <v>362</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>432</v>
+        <v>364</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12834,23 +12858,21 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>435</v>
+        <v>367</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>41</v>
       </c>
@@ -12898,7 +12920,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>434</v>
+        <v>366</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12919,13 +12941,13 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>440</v>
+        <v>287</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>441</v>
+        <v>371</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>41</v>
+        <v>365</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>41</v>
@@ -12933,14 +12955,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12956,21 +12978,23 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>149</v>
+        <v>374</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>443</v>
+        <v>375</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>443</v>
+        <v>376</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="O90" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
@@ -12994,13 +13018,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>446</v>
+        <v>41</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -13018,7 +13042,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>442</v>
+        <v>372</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13033,34 +13057,34 @@
         <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>447</v>
+        <v>41</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>450</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13076,22 +13100,22 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>149</v>
+        <v>385</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>452</v>
+        <v>386</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>453</v>
+        <v>387</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13116,13 +13140,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>455</v>
+        <v>41</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13140,7 +13164,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13155,19 +13179,19 @@
         <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>41</v>
+        <v>389</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>457</v>
+        <v>390</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>458</v>
+        <v>391</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>41</v>
+        <v>392</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>41</v>
@@ -13175,10 +13199,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13198,19 +13222,19 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>460</v>
+        <v>394</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>462</v>
+        <v>396</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>463</v>
+        <v>397</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13260,7 +13284,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>459</v>
+        <v>393</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13278,27 +13302,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>464</v>
+        <v>41</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>465</v>
+        <v>398</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>466</v>
+        <v>399</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>467</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13309,7 +13333,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13318,21 +13342,23 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>469</v>
+        <v>402</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>470</v>
+        <v>403</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>471</v>
+        <v>404</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="O93" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P93" t="s" s="2">
         <v>41</v>
       </c>
@@ -13380,13 +13406,13 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>468</v>
+        <v>401</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
@@ -13395,30 +13421,30 @@
         <v>64</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>473</v>
+        <v>41</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>474</v>
+        <v>408</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>475</v>
+        <v>409</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>41</v>
+        <v>410</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>476</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13429,7 +13455,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13438,22 +13464,22 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>478</v>
+        <v>412</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>479</v>
+        <v>413</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>480</v>
+        <v>414</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>481</v>
+        <v>415</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>482</v>
+        <v>416</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13502,45 +13528,45 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>477</v>
+        <v>411</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>483</v>
+        <v>64</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>484</v>
+        <v>419</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>485</v>
+        <v>420</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>486</v>
+        <v>422</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13563,16 +13589,20 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>166</v>
+        <v>423</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>41</v>
       </c>
@@ -13596,13 +13626,13 @@
         <v>41</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>41</v>
@@ -13620,7 +13650,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>168</v>
+        <v>422</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13629,10 +13659,10 @@
         <v>52</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13641,10 +13671,10 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>169</v>
+        <v>431</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13655,14 +13685,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>487</v>
+        <v>432</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>97</v>
+        <v>433</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13681,18 +13711,20 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>99</v>
+        <v>434</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>172</v>
+        <v>435</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O96" s="2"/>
+        <v>436</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>437</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13716,13 +13748,13 @@
         <v>41</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>41</v>
+        <v>427</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>41</v>
+        <v>438</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>41</v>
+        <v>439</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>41</v>
@@ -13740,7 +13772,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>175</v>
+        <v>432</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13752,37 +13784,37 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>41</v>
+        <v>440</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>41</v>
+        <v>441</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>41</v>
+        <v>443</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13795,25 +13827,25 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>98</v>
+        <v>445</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>491</v>
+        <v>447</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>101</v>
+        <v>448</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>107</v>
+        <v>449</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
@@ -13862,7 +13894,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>492</v>
+        <v>444</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13874,7 +13906,7 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
@@ -13883,10 +13915,10 @@
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>95</v>
+        <v>451</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>41</v>
@@ -13897,10 +13929,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13923,15 +13955,17 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>494</v>
+        <v>149</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>495</v>
+        <v>453</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="N98" s="2"/>
+        <v>453</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>41</v>
@@ -13956,13 +13990,13 @@
         <v>41</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>41</v>
@@ -13980,7 +14014,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13989,7 +14023,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -13998,27 +14032,27 @@
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>41</v>
+        <v>460</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14041,16 +14075,20 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>494</v>
+        <v>149</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>501</v>
+        <v>462</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P99" t="s" s="2">
         <v>41</v>
       </c>
@@ -14074,13 +14112,13 @@
         <v>41</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>41</v>
+        <v>466</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>41</v>
@@ -14098,7 +14136,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>500</v>
+        <v>461</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14107,7 +14145,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>497</v>
+        <v>41</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14119,10 +14157,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>503</v>
+        <v>468</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14133,10 +14171,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14159,20 +14197,18 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>149</v>
+        <v>470</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>508</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>41</v>
       </c>
@@ -14196,13 +14232,13 @@
         <v>41</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>509</v>
+        <v>41</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>510</v>
+        <v>41</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14220,7 +14256,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14238,27 +14274,27 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>511</v>
+        <v>474</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>512</v>
+        <v>475</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>432</v>
+        <v>476</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>41</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14269,7 +14305,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
@@ -14281,20 +14317,18 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>149</v>
+        <v>479</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>516</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>517</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>41</v>
       </c>
@@ -14318,13 +14352,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>518</v>
+        <v>41</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>519</v>
+        <v>41</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14342,13 +14376,13 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>41</v>
@@ -14360,27 +14394,27 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>511</v>
+        <v>483</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>41</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14391,7 +14425,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -14403,17 +14437,19 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>521</v>
+        <v>488</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>522</v>
+        <v>489</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>491</v>
+      </c>
       <c r="O102" t="s" s="2">
-        <v>524</v>
+        <v>492</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14462,19 +14498,19 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>64</v>
+        <v>493</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -14483,10 +14519,10 @@
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>41</v>
+        <v>494</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14497,10 +14533,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>526</v>
+        <v>496</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14526,10 +14562,10 @@
         <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>527</v>
+        <v>166</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>528</v>
+        <v>167</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14580,7 +14616,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>526</v>
+        <v>168</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14592,7 +14628,7 @@
         <v>41</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>41</v>
@@ -14601,10 +14637,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>498</v>
+        <v>41</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>529</v>
+        <v>169</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14615,14 +14651,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>530</v>
+        <v>497</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14638,19 +14674,19 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>531</v>
+        <v>98</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>532</v>
+        <v>99</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>533</v>
+        <v>172</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>534</v>
+        <v>101</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14700,7 +14736,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>530</v>
+        <v>175</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14712,7 +14748,7 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14721,10 +14757,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>535</v>
+        <v>41</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14735,14 +14771,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>537</v>
+        <v>498</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14755,24 +14791,26 @@
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>538</v>
+        <v>98</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>539</v>
+        <v>500</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>540</v>
+        <v>501</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>541</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14820,7 +14858,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>537</v>
+        <v>502</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14832,7 +14870,7 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
@@ -14841,10 +14879,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>535</v>
+        <v>41</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>542</v>
+        <v>95</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14855,10 +14893,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14869,7 +14907,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>41</v>
@@ -14878,23 +14916,19 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>544</v>
+        <v>505</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>545</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
         <v>41</v>
       </c>
@@ -14942,16 +14976,16 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>543</v>
+        <v>503</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>41</v>
+        <v>507</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>64</v>
@@ -14963,10 +14997,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14977,10 +15011,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15003,13 +15037,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>165</v>
+        <v>504</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>166</v>
+        <v>511</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>167</v>
+        <v>512</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15060,7 +15094,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>168</v>
+        <v>510</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -15069,10 +15103,10 @@
         <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>41</v>
+        <v>507</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>41</v>
@@ -15081,10 +15115,10 @@
         <v>41</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>41</v>
+        <v>508</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>169</v>
+        <v>513</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15095,21 +15129,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>551</v>
+        <v>514</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -15121,18 +15155,20 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>99</v>
+        <v>515</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>172</v>
+        <v>516</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O108" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O108" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P108" t="s" s="2">
         <v>41</v>
       </c>
@@ -15156,13 +15192,13 @@
         <v>41</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>41</v>
+        <v>519</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>41</v>
@@ -15180,31 +15216,31 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>175</v>
+        <v>514</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>169</v>
+        <v>442</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15215,14 +15251,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>552</v>
+        <v>523</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>489</v>
+        <v>41</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15235,25 +15271,25 @@
         <v>41</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>98</v>
+        <v>149</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>101</v>
+        <v>526</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>107</v>
+        <v>527</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>41</v>
@@ -15278,13 +15314,13 @@
         <v>41</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>41</v>
+        <v>528</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>41</v>
+        <v>529</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>41</v>
@@ -15302,7 +15338,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15314,19 +15350,19 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>41</v>
+        <v>521</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>41</v>
+        <v>522</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>95</v>
+        <v>442</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>41</v>
@@ -15337,10 +15373,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15348,7 +15384,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>52</v>
@@ -15360,22 +15396,20 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>149</v>
+        <v>531</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
-        <v>281</v>
+        <v>534</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15400,13 +15434,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>283</v>
+        <v>41</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15424,10 +15458,10 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>52</v>
@@ -15442,16 +15476,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>557</v>
+        <v>41</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>288</v>
+        <v>535</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15459,10 +15493,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15482,23 +15516,19 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>559</v>
+        <v>165</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>560</v>
+        <v>537</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="N111" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="O111" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
         <v>41</v>
       </c>
@@ -15546,7 +15576,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>558</v>
+        <v>536</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15564,27 +15594,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>563</v>
+        <v>41</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>409</v>
+        <v>508</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>410</v>
+        <v>539</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>411</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15595,7 +15625,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -15604,23 +15634,21 @@
         <v>41</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>149</v>
+        <v>541</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>565</v>
+        <v>542</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>566</v>
+        <v>543</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O112" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>544</v>
+      </c>
+      <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
         <v>41</v>
       </c>
@@ -15644,13 +15672,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>419</v>
+        <v>41</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15668,16 +15696,16 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>420</v>
+        <v>41</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15689,10 +15717,10 @@
         <v>41</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>95</v>
+        <v>545</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>421</v>
+        <v>546</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15703,14 +15731,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>423</v>
+        <v>41</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15726,23 +15754,21 @@
         <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>149</v>
+        <v>548</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>572</v>
-      </c>
+        <v>551</v>
+      </c>
+      <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
         <v>41</v>
       </c>
@@ -15766,13 +15792,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>428</v>
+        <v>41</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15790,7 +15816,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>568</v>
+        <v>547</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15808,27 +15834,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>431</v>
+        <v>545</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>432</v>
+        <v>552</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>433</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15848,22 +15874,22 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>42</v>
+        <v>488</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15912,7 +15938,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15933,15 +15959,985 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>485</v>
+        <v>559</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP114" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B115" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E115" s="2"/>
+      <c r="F115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q115" s="2"/>
+      <c r="R115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN115" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AO115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP115" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="B116" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="E116" s="2"/>
+      <c r="F116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O116" s="2"/>
+      <c r="P116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q116" s="2"/>
+      <c r="R116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN116" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AO116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP116" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="B117" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="E117" s="2"/>
+      <c r="F117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M117" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N117" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="O117" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="P117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q117" s="2"/>
+      <c r="R117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ117" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN117" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AO117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP117" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B118" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E118" s="2"/>
+      <c r="F118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="N118" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="O118" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="P118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q118" s="2"/>
+      <c r="R118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AN118" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AO118" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AP118" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="B119" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E119" s="2"/>
+      <c r="F119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="M119" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="N119" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="O119" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="P119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q119" s="2"/>
+      <c r="R119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AN119" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AO119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP119" t="s" s="2">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B120" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C120" s="2"/>
+      <c r="D120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E120" s="2"/>
+      <c r="F120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M120" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N120" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O120" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="P120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q120" s="2"/>
+      <c r="R120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AN120" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AO120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP120" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="B121" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="C121" s="2"/>
+      <c r="D121" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="M121" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="N121" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="O121" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="P121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q121" s="2"/>
+      <c r="R121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AN121" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AO121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP121" t="s" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="B122" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="C122" s="2"/>
+      <c r="D122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="N122" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="O122" t="s" s="2">
+        <v>587</v>
+      </c>
+      <c r="P122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Q122" s="2"/>
+      <c r="R122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AO122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP122" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="579">
   <si>
     <t>Property</t>
   </si>
@@ -943,54 +943,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Observation.code.coding:@default</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent</t>
   </si>
   <si>
@@ -1013,25 +965,46 @@
     <t>Observation.code.coding:infectious-agent.id</t>
   </si>
   <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.extension</t>
   </si>
   <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.system</t>
   </si>
   <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent.version</t>
   </si>
   <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.code</t>
   </si>
   <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.display</t>
   </si>
   <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug</t>
@@ -2180,7 +2153,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP122"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -8749,7 +8722,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8764,13 +8737,13 @@
         <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>182</v>
@@ -8798,13 +8771,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>302</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8857,10 +8828,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8975,10 +8946,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9095,10 +9066,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9140,7 +9111,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>41</v>
+        <v>309</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9217,10 +9188,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9337,10 +9308,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9457,10 +9428,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9577,10 +9548,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9699,13 +9670,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9730,13 +9701,13 @@
         <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>182</v>
@@ -9768,7 +9739,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9821,10 +9792,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9939,10 +9910,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10059,10 +10030,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10104,7 +10075,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10181,10 +10152,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10301,10 +10272,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10421,10 +10392,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10541,10 +10512,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10663,13 +10634,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10694,13 +10665,13 @@
         <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>182</v>
@@ -10732,7 +10703,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10785,10 +10756,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10903,10 +10874,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11023,10 +10994,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11068,7 +11039,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11145,10 +11116,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11265,10 +11236,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11385,10 +11356,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11505,10 +11476,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11627,14 +11598,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>41</v>
       </c>
@@ -11655,19 +11624,19 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11692,11 +11661,13 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11714,13 +11685,13 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
@@ -11735,10 +11706,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11752,7 +11723,7 @@
         <v>347</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>347</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11760,7 +11731,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>52</v>
@@ -11772,19 +11743,23 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>165</v>
+        <v>348</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>166</v>
+        <v>349</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11832,7 +11807,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>168</v>
+        <v>347</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11844,22 +11819,22 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>41</v>
+        <v>354</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11867,14 +11842,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>302</v>
+        <v>357</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11890,19 +11865,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>358</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>172</v>
+        <v>360</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>101</v>
+        <v>361</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11940,19 +11915,19 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>175</v>
+        <v>357</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11964,7 +11939,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11973,13 +11948,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>169</v>
+        <v>362</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>41</v>
+        <v>356</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11987,18 +11962,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>304</v>
+        <v>363</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>52</v>
@@ -12013,26 +11988,26 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>66</v>
+        <v>365</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>192</v>
+        <v>366</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>193</v>
+        <v>367</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>194</v>
+        <v>368</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>195</v>
+        <v>369</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>41</v>
@@ -12074,7 +12049,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>197</v>
+        <v>363</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12089,19 +12064,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>41</v>
+        <v>370</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>198</v>
+        <v>371</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>199</v>
+        <v>372</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>41</v>
+        <v>373</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12109,14 +12084,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>351</v>
+        <v>374</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>306</v>
+        <v>374</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>41</v>
+        <v>375</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12135,18 +12110,20 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>376</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>202</v>
+        <v>377</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>203</v>
+        <v>377</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>378</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>379</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
       </c>
@@ -12194,7 +12171,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>205</v>
+        <v>374</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12209,19 +12186,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>41</v>
+        <v>380</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>206</v>
+        <v>381</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>207</v>
+        <v>382</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12229,10 +12206,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>308</v>
+        <v>384</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12255,18 +12232,18 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>72</v>
+        <v>385</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>210</v>
+        <v>386</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>41</v>
       </c>
@@ -12314,7 +12291,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>213</v>
+        <v>384</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12335,13 +12312,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>214</v>
+        <v>389</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>215</v>
+        <v>390</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12349,10 +12326,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>310</v>
+        <v>392</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12363,7 +12340,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12375,17 +12352,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>165</v>
+        <v>393</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>218</v>
+        <v>394</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12434,13 +12413,13 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>392</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
@@ -12449,19 +12428,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>41</v>
+        <v>398</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>223</v>
+        <v>400</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>41</v>
+        <v>401</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12469,10 +12448,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>312</v>
+        <v>402</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12495,19 +12474,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>226</v>
+        <v>403</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>227</v>
+        <v>404</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>228</v>
+        <v>405</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>229</v>
+        <v>406</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>230</v>
+        <v>407</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12556,7 +12535,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>231</v>
+        <v>402</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12565,7 +12544,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12574,27 +12553,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>41</v>
+        <v>409</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>232</v>
+        <v>410</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>355</v>
+        <v>413</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12614,22 +12593,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>236</v>
+        <v>414</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>237</v>
+        <v>415</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>238</v>
+        <v>416</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>239</v>
+        <v>417</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12654,13 +12633,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12678,7 +12657,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>240</v>
+        <v>413</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12687,7 +12666,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12699,10 +12678,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>242</v>
+        <v>422</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12713,21 +12692,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -12736,22 +12715,22 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12776,13 +12755,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12800,13 +12779,13 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
@@ -12815,30 +12794,30 @@
         <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>41</v>
+        <v>434</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12858,21 +12837,23 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>367</v>
+        <v>436</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>368</v>
+        <v>437</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>369</v>
+        <v>438</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>440</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
       </c>
@@ -12920,7 +12901,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>366</v>
+        <v>435</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12941,13 +12922,13 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>287</v>
+        <v>441</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>371</v>
+        <v>442</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>41</v>
@@ -12955,14 +12936,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12978,23 +12959,21 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>374</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>375</v>
+        <v>444</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>376</v>
+        <v>444</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>445</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
@@ -13018,13 +12997,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -13042,7 +13021,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>372</v>
+        <v>443</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13057,34 +13036,34 @@
         <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>41</v>
+        <v>448</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>380</v>
+        <v>449</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>381</v>
+        <v>450</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>41</v>
+        <v>451</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13100,22 +13079,22 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>387</v>
+        <v>454</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>388</v>
+        <v>455</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13140,13 +13119,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>41</v>
+        <v>457</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13164,7 +13143,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>383</v>
+        <v>452</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13179,19 +13158,19 @@
         <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>390</v>
+        <v>458</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>391</v>
+        <v>459</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>41</v>
@@ -13199,10 +13178,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13222,19 +13201,19 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>394</v>
+        <v>461</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>395</v>
+        <v>462</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>396</v>
+        <v>463</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>397</v>
+        <v>464</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13284,7 +13263,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>393</v>
+        <v>460</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13302,27 +13281,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>41</v>
+        <v>465</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>398</v>
+        <v>466</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>399</v>
+        <v>467</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>41</v>
+        <v>468</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13333,7 +13312,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13342,23 +13321,21 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>402</v>
+        <v>470</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>403</v>
+        <v>471</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>404</v>
+        <v>472</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>41</v>
       </c>
@@ -13406,13 +13383,13 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>401</v>
+        <v>469</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
@@ -13421,30 +13398,30 @@
         <v>64</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>41</v>
+        <v>474</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>408</v>
+        <v>475</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>409</v>
+        <v>476</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>41</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13455,7 +13432,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13464,22 +13441,22 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>412</v>
+        <v>479</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>413</v>
+        <v>480</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>414</v>
+        <v>481</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>415</v>
+        <v>482</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>416</v>
+        <v>483</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13528,45 +13505,45 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>411</v>
+        <v>478</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>64</v>
+        <v>484</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13589,20 +13566,16 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>41</v>
       </c>
@@ -13626,13 +13599,13 @@
         <v>41</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>428</v>
+        <v>41</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>41</v>
@@ -13650,7 +13623,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>422</v>
+        <v>168</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13659,10 +13632,10 @@
         <v>52</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13671,10 +13644,10 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>431</v>
+        <v>169</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13685,14 +13658,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13711,20 +13684,18 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>434</v>
+        <v>99</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>435</v>
+        <v>172</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13748,13 +13719,13 @@
         <v>41</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>41</v>
@@ -13772,7 +13743,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13784,37 +13755,37 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>442</v>
+        <v>169</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>444</v>
+        <v>489</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13827,25 +13798,25 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>445</v>
+        <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>446</v>
+        <v>491</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>447</v>
+        <v>492</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>448</v>
+        <v>101</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>449</v>
+        <v>107</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
@@ -13894,7 +13865,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13906,7 +13877,7 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
@@ -13915,10 +13886,10 @@
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>41</v>
@@ -13929,10 +13900,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13955,17 +13926,15 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>149</v>
+        <v>495</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>41</v>
@@ -13990,13 +13959,13 @@
         <v>41</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>455</v>
+        <v>41</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>41</v>
@@ -14014,7 +13983,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>452</v>
+        <v>494</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -14023,7 +13992,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -14032,27 +14001,27 @@
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14075,20 +14044,16 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>149</v>
+        <v>495</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>502</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>41</v>
       </c>
@@ -14112,13 +14077,13 @@
         <v>41</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>466</v>
+        <v>41</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>41</v>
@@ -14136,7 +14101,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>461</v>
+        <v>501</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14145,7 +14110,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14157,10 +14122,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>467</v>
+        <v>499</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14171,10 +14136,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14197,18 +14162,20 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>470</v>
+        <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>508</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>509</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
       </c>
@@ -14232,13 +14199,13 @@
         <v>41</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>41</v>
+        <v>510</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>41</v>
+        <v>511</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14256,7 +14223,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>469</v>
+        <v>505</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14274,27 +14241,27 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>474</v>
+        <v>512</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>477</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14305,7 +14272,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
@@ -14317,18 +14284,20 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
       </c>
@@ -14352,13 +14321,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>41</v>
+        <v>519</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14376,13 +14345,13 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>41</v>
@@ -14394,27 +14363,27 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>486</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14425,7 +14394,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -14437,19 +14406,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14498,19 +14465,19 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>493</v>
+        <v>64</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -14519,10 +14486,10 @@
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14533,10 +14500,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14562,10 +14529,10 @@
         <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>166</v>
+        <v>528</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>167</v>
+        <v>529</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14616,7 +14583,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>168</v>
+        <v>527</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14628,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>41</v>
@@ -14637,10 +14604,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>41</v>
+        <v>499</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>169</v>
+        <v>530</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14651,14 +14618,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14674,19 +14641,19 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>98</v>
+        <v>532</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>99</v>
+        <v>533</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>172</v>
+        <v>534</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>101</v>
+        <v>535</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14736,7 +14703,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>175</v>
+        <v>531</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14748,7 +14715,7 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14757,10 +14724,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>169</v>
+        <v>537</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14771,14 +14738,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
+        <v>538</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>499</v>
+        <v>41</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14791,26 +14758,24 @@
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>98</v>
+        <v>539</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14858,7 +14823,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>502</v>
+        <v>538</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14870,7 +14835,7 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
@@ -14879,10 +14844,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>41</v>
+        <v>536</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>95</v>
+        <v>543</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14893,10 +14858,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14907,7 +14872,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>41</v>
@@ -14916,19 +14881,23 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>504</v>
+        <v>479</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>505</v>
+        <v>545</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>546</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>548</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
       </c>
@@ -14976,16 +14945,16 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>503</v>
+        <v>544</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>64</v>
@@ -14997,10 +14966,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -15011,10 +14980,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>510</v>
+        <v>551</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15037,13 +15006,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>504</v>
+        <v>165</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>511</v>
+        <v>166</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15094,7 +15063,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>510</v>
+        <v>168</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -15103,10 +15072,10 @@
         <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>41</v>
@@ -15115,10 +15084,10 @@
         <v>41</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15129,21 +15098,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -15155,20 +15124,18 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>515</v>
+        <v>99</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>41</v>
       </c>
@@ -15192,13 +15159,13 @@
         <v>41</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>519</v>
+        <v>41</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>520</v>
+        <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>41</v>
@@ -15216,31 +15183,31 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>514</v>
+        <v>175</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>442</v>
+        <v>169</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15251,14 +15218,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>41</v>
+        <v>490</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15271,25 +15238,25 @@
         <v>41</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>524</v>
+        <v>491</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>525</v>
+        <v>492</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>526</v>
+        <v>101</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>41</v>
@@ -15314,13 +15281,13 @@
         <v>41</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>41</v>
@@ -15338,7 +15305,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15350,19 +15317,19 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>442</v>
+        <v>95</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>41</v>
@@ -15373,10 +15340,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15384,7 +15351,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>52</v>
@@ -15396,20 +15363,22 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>531</v>
+        <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>532</v>
+        <v>555</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>556</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>534</v>
+        <v>281</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15434,13 +15403,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15458,10 +15427,10 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>52</v>
@@ -15476,16 +15445,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>41</v>
+        <v>558</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>535</v>
+        <v>288</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15493,10 +15462,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15516,19 +15485,23 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>165</v>
+        <v>560</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>562</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
       </c>
@@ -15576,7 +15549,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>536</v>
+        <v>559</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15594,27 +15567,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>41</v>
+        <v>564</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>508</v>
+        <v>410</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>539</v>
+        <v>411</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>41</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15625,7 +15598,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -15634,21 +15607,23 @@
         <v>41</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>541</v>
+        <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>542</v>
+        <v>566</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>543</v>
+        <v>567</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
       </c>
@@ -15672,13 +15647,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15696,16 +15671,16 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>41</v>
+        <v>421</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15717,10 +15692,10 @@
         <v>41</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>545</v>
+        <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>546</v>
+        <v>422</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15731,14 +15706,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>41</v>
+        <v>424</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15754,21 +15729,23 @@
         <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>548</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>572</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
       </c>
@@ -15792,13 +15769,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15816,7 +15793,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>547</v>
+        <v>569</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15834,27 +15811,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>41</v>
+        <v>431</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>545</v>
+        <v>432</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>552</v>
+        <v>433</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>41</v>
+        <v>434</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15874,22 +15851,22 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>488</v>
+        <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15938,7 +15915,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15959,985 +15936,15 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>558</v>
+        <v>485</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>559</v>
+        <v>486</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP122" t="s" s="2">
         <v>41</v>
       </c>
     </row>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -938,9 +938,6 @@
   <si>
     <t xml:space="preserve">value:system}
 </t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent</t>
@@ -2190,7 +2187,7 @@
     <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -8668,7 +8665,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>183</v>
@@ -8706,13 +8703,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8737,13 +8734,13 @@
         <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>182</v>
@@ -8775,7 +8772,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8828,10 +8825,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B56" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>304</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8946,10 +8943,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9066,10 +9063,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="B58" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="B58" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9111,7 +9108,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9188,10 +9185,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="B59" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="B59" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9308,10 +9305,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="B60" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="B60" t="s" s="2">
-        <v>313</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9428,10 +9425,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B61" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9548,10 +9545,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="B62" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9670,13 +9667,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9701,13 +9698,13 @@
         <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>182</v>
@@ -9739,7 +9736,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9792,10 +9789,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9910,10 +9907,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10030,10 +10027,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10075,7 +10072,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10152,10 +10149,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10272,10 +10269,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10392,10 +10389,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10512,10 +10509,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10634,13 +10631,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10665,13 +10662,13 @@
         <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>182</v>
@@ -10703,7 +10700,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10756,10 +10753,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10874,10 +10871,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10994,10 +10991,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11039,7 +11036,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11116,10 +11113,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11236,10 +11233,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11356,10 +11353,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11476,10 +11473,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11598,10 +11595,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11720,10 +11717,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11746,19 +11743,19 @@
         <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
@@ -11807,7 +11804,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11822,19 +11819,19 @@
         <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM80" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM80" t="s" s="2">
+      <c r="AN80" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN80" t="s" s="2">
+      <c r="AO80" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11842,10 +11839,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11868,16 +11865,16 @@
         <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11927,7 +11924,7 @@
         <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11951,10 +11948,10 @@
         <v>287</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11962,14 +11959,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11988,19 +11985,19 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="N82" t="s" s="2">
+      <c r="O82" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
@@ -12049,7 +12046,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12064,19 +12061,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM82" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="AL82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM82" t="s" s="2">
+      <c r="AN82" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="AN82" t="s" s="2">
+      <c r="AO82" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="AO82" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12084,14 +12081,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12110,19 +12107,19 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L83" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L83" t="s" s="2">
+      <c r="M83" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N83" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="M83" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N83" t="s" s="2">
+      <c r="O83" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
@@ -12171,7 +12168,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12186,19 +12183,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM83" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="AL83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM83" t="s" s="2">
+      <c r="AN83" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="AN83" t="s" s="2">
+      <c r="AO83" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="AO83" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12206,10 +12203,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12232,16 +12229,16 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12291,7 +12288,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12312,13 +12309,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AN84" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AN84" t="s" s="2">
+      <c r="AO84" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AO84" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12326,10 +12323,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12352,19 +12349,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N85" t="s" s="2">
+      <c r="O85" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12413,7 +12410,7 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
@@ -12428,19 +12425,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AL85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12448,10 +12445,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12474,19 +12471,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="N86" t="s" s="2">
+      <c r="O86" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12535,7 +12532,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12544,7 +12541,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12553,27 +12550,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12599,16 +12596,16 @@
         <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M87" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>417</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12633,40 +12630,40 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y87" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Y87" t="s" s="2">
+      <c r="Z87" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z87" t="s" s="2">
+      <c r="AA87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI87" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12681,7 +12678,7 @@
         <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12692,14 +12689,14 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
@@ -12721,16 +12718,16 @@
         <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="N88" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="N88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>428</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12755,14 +12752,14 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y88" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z88" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z88" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
       </c>
@@ -12779,7 +12776,7 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
@@ -12797,27 +12794,27 @@
         <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM88" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AN88" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN88" t="s" s="2">
+      <c r="AO88" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP88" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP88" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12840,19 +12837,19 @@
         <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="L89" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="L89" t="s" s="2">
+      <c r="M89" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M89" t="s" s="2">
+      <c r="N89" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N89" t="s" s="2">
+      <c r="O89" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
@@ -12901,7 +12898,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12922,10 +12919,10 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AN89" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>41</v>
@@ -12936,10 +12933,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12965,13 +12962,13 @@
         <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N90" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
@@ -13000,11 +12997,11 @@
         <v>282</v>
       </c>
       <c r="Y90" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Z90" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="Z90" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
       </c>
@@ -13021,7 +13018,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13039,27 +13036,27 @@
         <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AM90" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AM90" t="s" s="2">
+      <c r="AN90" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="AN90" t="s" s="2">
+      <c r="AO90" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP90" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP90" t="s" s="2">
-        <v>451</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13085,16 +13082,16 @@
         <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N91" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M91" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N91" t="s" s="2">
+      <c r="O91" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13122,11 +13119,11 @@
         <v>282</v>
       </c>
       <c r="Y91" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Z91" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Z91" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
       </c>
@@ -13143,7 +13140,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13164,10 +13161,10 @@
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>41</v>
@@ -13178,10 +13175,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13204,16 +13201,16 @@
         <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>462</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13263,7 +13260,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13281,27 +13278,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AM92" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AM92" t="s" s="2">
+      <c r="AN92" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AN92" t="s" s="2">
+      <c r="AO92" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AO92" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP92" t="s" s="2">
-        <v>468</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13324,16 +13321,16 @@
         <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
@@ -13383,7 +13380,7 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
@@ -13401,27 +13398,27 @@
         <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AM93" t="s" s="2">
+      <c r="AN93" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AN93" t="s" s="2">
+      <c r="AO93" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="AO93" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP93" t="s" s="2">
-        <v>477</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13444,19 +13441,19 @@
         <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13505,7 +13502,7 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
@@ -13517,19 +13514,19 @@
         <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="AK94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL94" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM94" t="s" s="2">
+      <c r="AN94" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN94" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
@@ -13540,10 +13537,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13658,10 +13655,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13778,14 +13775,14 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13807,10 +13804,10 @@
         <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M97" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N97" t="s" s="2">
         <v>101</v>
@@ -13865,7 +13862,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13900,10 +13897,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13926,13 +13923,13 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -13983,7 +13980,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -13992,7 +13989,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -14004,10 +14001,10 @@
         <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AN98" t="s" s="2">
         <v>499</v>
-      </c>
-      <c r="AN98" t="s" s="2">
-        <v>500</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
@@ -14018,10 +14015,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14044,13 +14041,13 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M99" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -14101,7 +14098,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14110,7 +14107,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14122,10 +14119,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14136,10 +14133,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14165,16 +14162,16 @@
         <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M100" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M100" t="s" s="2">
+      <c r="N100" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="N100" t="s" s="2">
+      <c r="O100" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>509</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
@@ -14202,11 +14199,11 @@
         <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z100" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="Z100" t="s" s="2">
-        <v>511</v>
-      </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
       </c>
@@ -14223,7 +14220,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14241,13 +14238,13 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM100" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM100" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AN100" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
@@ -14258,10 +14255,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14287,16 +14284,16 @@
         <v>149</v>
       </c>
       <c r="L101" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M101" t="s" s="2">
         <v>515</v>
       </c>
-      <c r="M101" t="s" s="2">
+      <c r="N101" t="s" s="2">
         <v>516</v>
       </c>
-      <c r="N101" t="s" s="2">
+      <c r="O101" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
@@ -14324,11 +14321,11 @@
         <v>282</v>
       </c>
       <c r="Y101" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="Z101" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="Z101" t="s" s="2">
-        <v>520</v>
-      </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
       </c>
@@ -14345,7 +14342,7 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
@@ -14363,13 +14360,13 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AM101" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="AM101" t="s" s="2">
-        <v>513</v>
-      </c>
       <c r="AN101" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
@@ -14380,10 +14377,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14406,17 +14403,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L102" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L102" t="s" s="2">
+      <c r="M102" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14465,7 +14462,7 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
@@ -14489,7 +14486,7 @@
         <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14500,10 +14497,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14529,10 +14526,10 @@
         <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>528</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>529</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14583,7 +14580,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14604,10 +14601,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14618,10 +14615,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14644,16 +14641,16 @@
         <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>535</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14703,7 +14700,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14724,10 +14721,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>536</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>537</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14738,10 +14735,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14764,16 +14761,16 @@
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>539</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>540</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>541</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>542</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
@@ -14823,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14844,10 +14841,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14858,10 +14855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14884,19 +14881,19 @@
         <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
@@ -14945,7 +14942,7 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
@@ -14966,10 +14963,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AN106" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>550</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -14980,10 +14977,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15098,10 +15095,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -15218,14 +15215,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15247,10 +15244,10 @@
         <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>101</v>
@@ -15305,7 +15302,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15340,10 +15337,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15369,13 +15366,13 @@
         <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M110" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>281</v>
@@ -15427,7 +15424,7 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>52</v>
@@ -15445,7 +15442,7 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AM110" t="s" s="2">
         <v>287</v>
@@ -15462,10 +15459,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15488,19 +15485,19 @@
         <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>560</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="M111" t="s" s="2">
+      <c r="N111" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="N111" t="s" s="2">
-        <v>563</v>
-      </c>
       <c r="O111" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
@@ -15549,7 +15546,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15567,27 +15564,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AM111" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN111" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AN111" t="s" s="2">
+      <c r="AO111" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP111" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="AO111" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP111" t="s" s="2">
-        <v>412</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15613,16 +15610,16 @@
         <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="M112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N112" t="s" s="2">
-        <v>568</v>
-      </c>
       <c r="O112" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
@@ -15647,40 +15644,40 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y112" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Y112" t="s" s="2">
+      <c r="Z112" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Z112" t="s" s="2">
+      <c r="AA112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF112" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG112" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH112" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="AI112" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15695,7 +15692,7 @@
         <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15706,14 +15703,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15735,16 +15732,16 @@
         <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>570</v>
       </c>
-      <c r="M113" t="s" s="2">
+      <c r="N113" t="s" s="2">
         <v>571</v>
       </c>
-      <c r="N113" t="s" s="2">
+      <c r="O113" t="s" s="2">
         <v>572</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>573</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
@@ -15769,14 +15766,14 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="Y113" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="Z113" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="Z113" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
       </c>
@@ -15793,7 +15790,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15811,27 +15808,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM113" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AN113" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN113" t="s" s="2">
+      <c r="AO113" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AP113" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO113" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP113" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15857,16 +15854,16 @@
         <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>575</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>576</v>
       </c>
-      <c r="N114" t="s" s="2">
+      <c r="O114" t="s" s="2">
         <v>577</v>
-      </c>
-      <c r="O114" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15915,7 +15912,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15936,10 +15933,10 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AN114" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AN114" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
+++ b/jpcore-r4/feature/ext-terminology-check/StructureDefinition-jp-observation-microbiology.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4709" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4402" uniqueCount="578">
   <si>
     <t>Property</t>
   </si>
@@ -940,57 +940,6 @@
 </t>
   </si>
   <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default</t>
-  </si>
-  <si>
-    <t>@default</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.system</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.code</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:@default.userSelected</t>
-  </si>
-  <si>
-    <t>Observation.code.coding.userSelected</t>
-  </si>
-  <si>
     <t>Observation.code.coding:infectious-agent</t>
   </si>
   <si>
@@ -1013,25 +962,46 @@
     <t>Observation.code.coding:infectious-agent.id</t>
   </si>
   <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.extension</t>
   </si>
   <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.system</t>
   </si>
   <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
     <t>urn:oid:1.2.392.100495.10.3.100.5.27.6.1</t>
   </si>
   <si>
     <t>Observation.code.coding:infectious-agent.version</t>
   </si>
   <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.code</t>
   </si>
   <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.display</t>
   </si>
   <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
     <t>Observation.code.coding:infectious-agent.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
     <t>Observation.code.coding:antimicrobial-drug</t>
@@ -2180,7 +2150,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP122"/>
+  <dimension ref="A1:AP114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2217,7 +2187,7 @@
     <col min="28" max="28" width="21.17578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="6.9296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
@@ -8695,7 +8665,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>296</v>
+        <v>156</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>183</v>
@@ -8733,13 +8703,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>41</v>
@@ -8749,7 +8719,7 @@
         <v>39</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>41</v>
@@ -8764,13 +8734,13 @@
         <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>179</v>
+        <v>298</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>182</v>
@@ -8798,13 +8768,11 @@
         <v>41</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>41</v>
+        <v>301</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>41</v>
@@ -8857,10 +8825,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8975,10 +8943,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9095,10 +9063,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9140,7 +9108,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>41</v>
+        <v>308</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -9217,10 +9185,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9337,10 +9305,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9457,10 +9425,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9577,10 +9545,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9699,13 +9667,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>41</v>
@@ -9730,13 +9698,13 @@
         <v>178</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>182</v>
@@ -9768,7 +9736,7 @@
       </c>
       <c r="Y63" s="2"/>
       <c r="Z63" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>41</v>
@@ -9821,10 +9789,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9939,10 +9907,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10059,10 +10027,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10104,7 +10072,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>41</v>
@@ -10181,10 +10149,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10301,10 +10269,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10421,10 +10389,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10541,10 +10509,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10663,13 +10631,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>293</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>41</v>
@@ -10694,13 +10662,13 @@
         <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>182</v>
@@ -10732,7 +10700,7 @@
       </c>
       <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>41</v>
@@ -10785,10 +10753,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10903,10 +10871,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11023,10 +10991,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11068,7 +11036,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>41</v>
@@ -11145,10 +11113,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11265,10 +11233,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11385,10 +11353,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11505,10 +11473,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11627,14 +11595,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>41</v>
       </c>
@@ -11655,19 +11621,19 @@
         <v>53</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>343</v>
+        <v>236</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -11692,11 +11658,13 @@
         <v>41</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="Y79" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="Z79" t="s" s="2">
-        <v>346</v>
+        <v>41</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>41</v>
@@ -11714,13 +11682,13 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>183</v>
+        <v>240</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>41</v>
@@ -11735,10 +11703,10 @@
         <v>41</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>184</v>
+        <v>241</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>41</v>
@@ -11749,10 +11717,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>300</v>
+        <v>346</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11760,7 +11728,7 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>52</v>
@@ -11772,19 +11740,23 @@
         <v>41</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>165</v>
+        <v>347</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>166</v>
+        <v>348</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>41</v>
       </c>
@@ -11832,7 +11804,7 @@
         <v>41</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>39</v>
@@ -11844,22 +11816,22 @@
         <v>41</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>41</v>
+        <v>353</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>169</v>
+        <v>354</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AP80" t="s" s="2">
         <v>41</v>
@@ -11867,14 +11839,14 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11890,19 +11862,19 @@
         <v>41</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>98</v>
+        <v>357</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>172</v>
+        <v>359</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>101</v>
+        <v>360</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11940,19 +11912,19 @@
         <v>41</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AC81" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AD81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>175</v>
+        <v>356</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>39</v>
@@ -11964,7 +11936,7 @@
         <v>41</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>41</v>
@@ -11973,13 +11945,13 @@
         <v>41</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>41</v>
+        <v>355</v>
       </c>
       <c r="AP81" t="s" s="2">
         <v>41</v>
@@ -11987,18 +11959,18 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>304</v>
+        <v>362</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>52</v>
@@ -12013,26 +11985,26 @@
         <v>53</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>66</v>
+        <v>364</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>192</v>
+        <v>365</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>193</v>
+        <v>366</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>194</v>
+        <v>367</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>195</v>
+        <v>368</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>41</v>
@@ -12074,7 +12046,7 @@
         <v>41</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>39</v>
@@ -12089,19 +12061,19 @@
         <v>64</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>198</v>
+        <v>370</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>199</v>
+        <v>371</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>41</v>
+        <v>372</v>
       </c>
       <c r="AP82" t="s" s="2">
         <v>41</v>
@@ -12109,14 +12081,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>41</v>
+        <v>374</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12135,18 +12107,20 @@
         <v>53</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>202</v>
+        <v>376</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>203</v>
+        <v>376</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>41</v>
       </c>
@@ -12194,7 +12168,7 @@
         <v>41</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>205</v>
+        <v>373</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>39</v>
@@ -12209,19 +12183,19 @@
         <v>64</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>41</v>
+        <v>379</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>206</v>
+        <v>380</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>207</v>
+        <v>381</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="AP83" t="s" s="2">
         <v>41</v>
@@ -12229,10 +12203,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>308</v>
+        <v>383</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12255,18 +12229,18 @@
         <v>53</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>72</v>
+        <v>384</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>210</v>
+        <v>385</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>212</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>41</v>
       </c>
@@ -12314,7 +12288,7 @@
         <v>41</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>213</v>
+        <v>383</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>39</v>
@@ -12335,13 +12309,13 @@
         <v>41</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>214</v>
+        <v>388</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>215</v>
+        <v>389</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>41</v>
+        <v>390</v>
       </c>
       <c r="AP84" t="s" s="2">
         <v>41</v>
@@ -12349,10 +12323,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>310</v>
+        <v>391</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12363,7 +12337,7 @@
         <v>39</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>41</v>
@@ -12375,17 +12349,19 @@
         <v>53</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>165</v>
+        <v>392</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>218</v>
+        <v>393</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O85" t="s" s="2">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>41</v>
@@ -12434,13 +12410,13 @@
         <v>41</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>221</v>
+        <v>391</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>41</v>
@@ -12449,19 +12425,19 @@
         <v>64</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>41</v>
+        <v>397</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>222</v>
+        <v>398</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>223</v>
+        <v>399</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>41</v>
+        <v>400</v>
       </c>
       <c r="AP85" t="s" s="2">
         <v>41</v>
@@ -12469,10 +12445,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>312</v>
+        <v>401</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12495,19 +12471,19 @@
         <v>53</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>226</v>
+        <v>402</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>227</v>
+        <v>403</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>228</v>
+        <v>404</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="O86" t="s" s="2">
-        <v>230</v>
+        <v>406</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>41</v>
@@ -12556,7 +12532,7 @@
         <v>41</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>39</v>
@@ -12565,7 +12541,7 @@
         <v>52</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>41</v>
+        <v>407</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>64</v>
@@ -12574,27 +12550,27 @@
         <v>41</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>41</v>
+        <v>408</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>233</v>
+        <v>410</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12614,22 +12590,22 @@
         <v>41</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>237</v>
+        <v>414</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>238</v>
+        <v>415</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>239</v>
+        <v>416</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>41</v>
@@ -12654,13 +12630,13 @@
         <v>41</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>41</v>
@@ -12678,7 +12654,7 @@
         <v>41</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>240</v>
+        <v>412</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>39</v>
@@ -12687,7 +12663,7 @@
         <v>52</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>64</v>
@@ -12699,10 +12675,10 @@
         <v>41</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>241</v>
+        <v>95</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>242</v>
+        <v>421</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>41</v>
@@ -12713,21 +12689,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>41</v>
@@ -12736,22 +12712,22 @@
         <v>41</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>357</v>
+        <v>149</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>358</v>
+        <v>424</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>359</v>
+        <v>425</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>361</v>
+        <v>427</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>41</v>
@@ -12776,13 +12752,13 @@
         <v>41</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>41</v>
@@ -12800,13 +12776,13 @@
         <v>41</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>356</v>
+        <v>422</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>41</v>
@@ -12815,30 +12791,30 @@
         <v>64</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>362</v>
+        <v>41</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>363</v>
+        <v>431</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="AP88" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12858,21 +12834,23 @@
         <v>41</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>367</v>
+        <v>435</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>368</v>
+        <v>436</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>369</v>
+        <v>437</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="O89" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>41</v>
       </c>
@@ -12920,7 +12898,7 @@
         <v>41</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>366</v>
+        <v>434</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>39</v>
@@ -12941,13 +12919,13 @@
         <v>41</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>287</v>
+        <v>440</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>371</v>
+        <v>441</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="AP89" t="s" s="2">
         <v>41</v>
@@ -12955,14 +12933,14 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -12978,23 +12956,21 @@
         <v>41</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>374</v>
+        <v>149</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>375</v>
+        <v>443</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>41</v>
       </c>
@@ -13018,13 +12994,13 @@
         <v>41</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>41</v>
+        <v>445</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>41</v>
+        <v>446</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>41</v>
@@ -13042,7 +13018,7 @@
         <v>41</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>372</v>
+        <v>442</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>39</v>
@@ -13057,34 +13033,34 @@
         <v>64</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>41</v>
+        <v>447</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>382</v>
+        <v>41</v>
       </c>
       <c r="AP90" t="s" s="2">
-        <v>41</v>
+        <v>450</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>384</v>
+        <v>41</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -13100,22 +13076,22 @@
         <v>41</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>385</v>
+        <v>149</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>386</v>
+        <v>452</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>387</v>
+        <v>453</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>388</v>
+        <v>454</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>41</v>
@@ -13140,13 +13116,13 @@
         <v>41</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>41</v>
+        <v>455</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>41</v>
+        <v>456</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>41</v>
@@ -13164,7 +13140,7 @@
         <v>41</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>39</v>
@@ -13179,19 +13155,19 @@
         <v>64</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>389</v>
+        <v>41</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>390</v>
+        <v>457</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>391</v>
+        <v>458</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>41</v>
@@ -13199,10 +13175,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13222,19 +13198,19 @@
         <v>41</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>394</v>
+        <v>460</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>395</v>
+        <v>461</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>396</v>
+        <v>462</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>397</v>
+        <v>463</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -13284,7 +13260,7 @@
         <v>41</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>393</v>
+        <v>459</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>39</v>
@@ -13302,27 +13278,27 @@
         <v>41</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>41</v>
+        <v>464</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>398</v>
+        <v>465</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>399</v>
+        <v>466</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>400</v>
+        <v>41</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>41</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13333,7 +13309,7 @@
         <v>39</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>41</v>
@@ -13342,23 +13318,21 @@
         <v>41</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>402</v>
+        <v>469</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>404</v>
+        <v>471</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>41</v>
       </c>
@@ -13406,13 +13380,13 @@
         <v>41</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>401</v>
+        <v>468</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>41</v>
@@ -13421,30 +13395,30 @@
         <v>64</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>407</v>
+        <v>41</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>41</v>
+        <v>473</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>409</v>
+        <v>475</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>410</v>
+        <v>41</v>
       </c>
       <c r="AP93" t="s" s="2">
-        <v>41</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13455,7 +13429,7 @@
         <v>39</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>41</v>
@@ -13464,22 +13438,22 @@
         <v>41</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>412</v>
+        <v>478</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>413</v>
+        <v>479</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>414</v>
+        <v>480</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>415</v>
+        <v>481</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>416</v>
+        <v>482</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>41</v>
@@ -13528,45 +13502,45 @@
         <v>41</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>411</v>
+        <v>477</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>417</v>
+        <v>41</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>64</v>
+        <v>483</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>418</v>
+        <v>41</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>421</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13589,20 +13563,16 @@
         <v>41</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>423</v>
+        <v>166</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>41</v>
       </c>
@@ -13626,13 +13596,13 @@
         <v>41</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>428</v>
+        <v>41</v>
       </c>
       <c r="Z95" t="s" s="2">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="AA95" t="s" s="2">
         <v>41</v>
@@ -13650,7 +13620,7 @@
         <v>41</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>422</v>
+        <v>168</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>39</v>
@@ -13659,10 +13629,10 @@
         <v>52</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>430</v>
+        <v>41</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>41</v>
@@ -13671,10 +13641,10 @@
         <v>41</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>431</v>
+        <v>169</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>41</v>
@@ -13685,14 +13655,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>433</v>
+        <v>97</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13711,20 +13681,18 @@
         <v>41</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>434</v>
+        <v>99</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>435</v>
+        <v>172</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>41</v>
       </c>
@@ -13748,13 +13716,13 @@
         <v>41</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>427</v>
+        <v>41</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="Z96" t="s" s="2">
-        <v>439</v>
+        <v>41</v>
       </c>
       <c r="AA96" t="s" s="2">
         <v>41</v>
@@ -13772,7 +13740,7 @@
         <v>41</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>432</v>
+        <v>175</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>39</v>
@@ -13784,37 +13752,37 @@
         <v>41</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>441</v>
+        <v>41</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>442</v>
+        <v>169</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP96" t="s" s="2">
-        <v>443</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>41</v>
+        <v>489</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
@@ -13827,25 +13795,25 @@
         <v>41</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>445</v>
+        <v>98</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>446</v>
+        <v>490</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>448</v>
+        <v>101</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>449</v>
+        <v>107</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>41</v>
@@ -13894,7 +13862,7 @@
         <v>41</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>39</v>
@@ -13906,7 +13874,7 @@
         <v>41</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>41</v>
@@ -13915,10 +13883,10 @@
         <v>41</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>450</v>
+        <v>41</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>451</v>
+        <v>95</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>41</v>
@@ -13929,10 +13897,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13955,17 +13923,15 @@
         <v>41</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>453</v>
+        <v>495</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>454</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>41</v>
@@ -13990,13 +13956,13 @@
         <v>41</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>455</v>
+        <v>41</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>456</v>
+        <v>41</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>41</v>
@@ -14014,7 +13980,7 @@
         <v>41</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>39</v>
@@ -14023,7 +13989,7 @@
         <v>52</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>64</v>
@@ -14032,27 +13998,27 @@
         <v>41</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>457</v>
+        <v>41</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>458</v>
+        <v>498</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>459</v>
+        <v>499</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP98" t="s" s="2">
-        <v>460</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14075,20 +14041,16 @@
         <v>41</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>149</v>
+        <v>494</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>464</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>41</v>
       </c>
@@ -14112,13 +14074,13 @@
         <v>41</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>465</v>
+        <v>41</v>
       </c>
       <c r="Z99" t="s" s="2">
-        <v>466</v>
+        <v>41</v>
       </c>
       <c r="AA99" t="s" s="2">
         <v>41</v>
@@ -14136,7 +14098,7 @@
         <v>41</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>461</v>
+        <v>500</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>39</v>
@@ -14145,7 +14107,7 @@
         <v>52</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>41</v>
+        <v>497</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>64</v>
@@ -14157,10 +14119,10 @@
         <v>41</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>41</v>
@@ -14171,10 +14133,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14197,18 +14159,20 @@
         <v>41</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>470</v>
+        <v>149</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="O100" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>508</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>41</v>
       </c>
@@ -14232,13 +14196,13 @@
         <v>41</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>41</v>
+        <v>509</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>41</v>
+        <v>510</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>41</v>
@@ -14256,7 +14220,7 @@
         <v>41</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>39</v>
@@ -14274,27 +14238,27 @@
         <v>41</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>476</v>
+        <v>432</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP100" t="s" s="2">
-        <v>477</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14305,7 +14269,7 @@
         <v>39</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>41</v>
@@ -14317,18 +14281,20 @@
         <v>41</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>479</v>
+        <v>149</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>516</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>517</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>41</v>
       </c>
@@ -14352,13 +14318,13 @@
         <v>41</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>41</v>
+        <v>518</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>41</v>
+        <v>519</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>41</v>
@@ -14376,13 +14342,13 @@
         <v>41</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>41</v>
@@ -14394,27 +14360,27 @@
         <v>41</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>483</v>
+        <v>511</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>484</v>
+        <v>512</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>485</v>
+        <v>432</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP101" t="s" s="2">
-        <v>486</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14425,7 +14391,7 @@
         <v>39</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>41</v>
@@ -14437,19 +14403,17 @@
         <v>41</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>41</v>
@@ -14498,19 +14462,19 @@
         <v>41</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>493</v>
+        <v>64</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>41</v>
@@ -14519,10 +14483,10 @@
         <v>41</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>495</v>
+        <v>525</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>41</v>
@@ -14533,10 +14497,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>496</v>
+        <v>526</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14562,10 +14526,10 @@
         <v>165</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>166</v>
+        <v>527</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14616,7 +14580,7 @@
         <v>41</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>168</v>
+        <v>526</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>39</v>
@@ -14628,7 +14592,7 @@
         <v>41</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>41</v>
@@ -14637,10 +14601,10 @@
         <v>41</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>41</v>
+        <v>498</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>169</v>
+        <v>529</v>
       </c>
       <c r="AO103" t="s" s="2">
         <v>41</v>
@@ -14651,14 +14615,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14674,19 +14638,19 @@
         <v>41</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>98</v>
+        <v>531</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>99</v>
+        <v>532</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>172</v>
+        <v>533</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>101</v>
+        <v>534</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14736,7 +14700,7 @@
         <v>41</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>175</v>
+        <v>530</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>39</v>
@@ -14748,7 +14712,7 @@
         <v>41</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK104" t="s" s="2">
         <v>41</v>
@@ -14757,10 +14721,10 @@
         <v>41</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>41</v>
+        <v>535</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>169</v>
+        <v>536</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>41</v>
@@ -14771,14 +14735,14 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>498</v>
+        <v>537</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>499</v>
+        <v>41</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14791,26 +14755,24 @@
         <v>41</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J105" t="s" s="2">
         <v>53</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>98</v>
+        <v>538</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>500</v>
+        <v>539</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>501</v>
+        <v>540</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>107</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>41</v>
       </c>
@@ -14858,7 +14820,7 @@
         <v>41</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>502</v>
+        <v>537</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>39</v>
@@ -14870,7 +14832,7 @@
         <v>41</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="AK105" t="s" s="2">
         <v>41</v>
@@ -14879,10 +14841,10 @@
         <v>41</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>41</v>
+        <v>535</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>95</v>
+        <v>542</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>41</v>
@@ -14893,10 +14855,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14907,7 +14869,7 @@
         <v>39</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H106" t="s" s="2">
         <v>41</v>
@@ -14916,19 +14878,23 @@
         <v>41</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>504</v>
+        <v>478</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>505</v>
+        <v>544</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>547</v>
+      </c>
       <c r="P106" t="s" s="2">
         <v>41</v>
       </c>
@@ -14976,16 +14942,16 @@
         <v>41</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>503</v>
+        <v>543</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>64</v>
@@ -14997,10 +14963,10 @@
         <v>41</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>508</v>
+        <v>548</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>509</v>
+        <v>549</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>41</v>
@@ -15011,10 +14977,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>510</v>
+        <v>550</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15037,13 +15003,13 @@
         <v>41</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>504</v>
+        <v>165</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>511</v>
+        <v>166</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -15094,7 +15060,7 @@
         <v>41</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>510</v>
+        <v>168</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>39</v>
@@ -15103,10 +15069,10 @@
         <v>52</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>507</v>
+        <v>41</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>41</v>
@@ -15115,10 +15081,10 @@
         <v>41</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>508</v>
+        <v>41</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>513</v>
+        <v>169</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>41</v>
@@ -15129,21 +15095,21 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>514</v>
+        <v>551</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="G108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="H108" t="s" s="2">
         <v>41</v>
@@ -15155,20 +15121,18 @@
         <v>41</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>515</v>
+        <v>99</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>516</v>
+        <v>172</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>41</v>
       </c>
@@ -15192,13 +15156,13 @@
         <v>41</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>519</v>
+        <v>41</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>520</v>
+        <v>41</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>41</v>
@@ -15216,31 +15180,31 @@
         <v>41</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>514</v>
+        <v>175</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="AN108" t="s" s="2">
-        <v>442</v>
+        <v>169</v>
       </c>
       <c r="AO108" t="s" s="2">
         <v>41</v>
@@ -15251,14 +15215,14 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>523</v>
+        <v>552</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>41</v>
+        <v>489</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -15271,25 +15235,25 @@
         <v>41</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>525</v>
+        <v>491</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>526</v>
+        <v>101</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>527</v>
+        <v>107</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>41</v>
@@ -15314,13 +15278,13 @@
         <v>41</v>
       </c>
       <c r="X109" t="s" s="2">
-        <v>282</v>
+        <v>41</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>528</v>
+        <v>41</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>529</v>
+        <v>41</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>41</v>
@@ -15338,7 +15302,7 @@
         <v>41</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>39</v>
@@ -15350,19 +15314,19 @@
         <v>41</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>521</v>
+        <v>41</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>522</v>
+        <v>41</v>
       </c>
       <c r="AN109" t="s" s="2">
-        <v>442</v>
+        <v>95</v>
       </c>
       <c r="AO109" t="s" s="2">
         <v>41</v>
@@ -15373,10 +15337,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15384,7 +15348,7 @@
       </c>
       <c r="E110" s="2"/>
       <c r="F110" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G110" t="s" s="2">
         <v>52</v>
@@ -15396,20 +15360,22 @@
         <v>41</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>531</v>
+        <v>149</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>532</v>
+        <v>554</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="N110" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N110" t="s" s="2">
+        <v>556</v>
+      </c>
       <c r="O110" t="s" s="2">
-        <v>534</v>
+        <v>281</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>41</v>
@@ -15434,13 +15400,13 @@
         <v>41</v>
       </c>
       <c r="X110" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Y110" t="s" s="2">
-        <v>41</v>
+        <v>283</v>
       </c>
       <c r="Z110" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AA110" t="s" s="2">
         <v>41</v>
@@ -15458,10 +15424,10 @@
         <v>41</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>52</v>
@@ -15476,16 +15442,16 @@
         <v>41</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>41</v>
+        <v>557</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>41</v>
+        <v>287</v>
       </c>
       <c r="AN110" t="s" s="2">
-        <v>535</v>
+        <v>288</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AP110" t="s" s="2">
         <v>41</v>
@@ -15493,10 +15459,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15516,19 +15482,23 @@
         <v>41</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>165</v>
+        <v>559</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>537</v>
+        <v>560</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
+        <v>561</v>
+      </c>
+      <c r="N111" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="O111" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="P111" t="s" s="2">
         <v>41</v>
       </c>
@@ -15576,7 +15546,7 @@
         <v>41</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>536</v>
+        <v>558</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>39</v>
@@ -15594,27 +15564,27 @@
         <v>41</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>41</v>
+        <v>563</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>508</v>
+        <v>409</v>
       </c>
       <c r="AN111" t="s" s="2">
-        <v>539</v>
+        <v>410</v>
       </c>
       <c r="AO111" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP111" t="s" s="2">
-        <v>41</v>
+        <v>411</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15625,7 +15595,7 @@
         <v>39</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>41</v>
@@ -15634,21 +15604,23 @@
         <v>41</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>541</v>
+        <v>149</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>542</v>
+        <v>565</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>543</v>
+        <v>566</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O112" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="O112" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P112" t="s" s="2">
         <v>41</v>
       </c>
@@ -15672,13 +15644,13 @@
         <v>41</v>
       </c>
       <c r="X112" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y112" t="s" s="2">
-        <v>41</v>
+        <v>418</v>
       </c>
       <c r="Z112" t="s" s="2">
-        <v>41</v>
+        <v>419</v>
       </c>
       <c r="AA112" t="s" s="2">
         <v>41</v>
@@ -15696,16 +15668,16 @@
         <v>41</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>540</v>
+        <v>564</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>41</v>
+        <v>420</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>64</v>
@@ -15717,10 +15689,10 @@
         <v>41</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>545</v>
+        <v>95</v>
       </c>
       <c r="AN112" t="s" s="2">
-        <v>546</v>
+        <v>421</v>
       </c>
       <c r="AO112" t="s" s="2">
         <v>41</v>
@@ -15731,14 +15703,14 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15754,21 +15726,23 @@
         <v>41</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>548</v>
+        <v>149</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O113" s="2"/>
+        <v>571</v>
+      </c>
+      <c r="O113" t="s" s="2">
+        <v>572</v>
+      </c>
       <c r="P113" t="s" s="2">
         <v>41</v>
       </c>
@@ -15792,13 +15766,13 @@
         <v>41</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>41</v>
+        <v>417</v>
       </c>
       <c r="Y113" t="s" s="2">
-        <v>41</v>
+        <v>428</v>
       </c>
       <c r="Z113" t="s" s="2">
-        <v>41</v>
+        <v>429</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>41</v>
@@ -15816,7 +15790,7 @@
         <v>41</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>547</v>
+        <v>568</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>39</v>
@@ -15834,27 +15808,27 @@
         <v>41</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>41</v>
+        <v>430</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>545</v>
+        <v>431</v>
       </c>
       <c r="AN113" t="s" s="2">
-        <v>552</v>
+        <v>432</v>
       </c>
       <c r="AO113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP113" t="s" s="2">
-        <v>41</v>
+        <v>433</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15874,22 +15848,22 @@
         <v>41</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>488</v>
+        <v>42</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>41</v>
@@ -15938,7 +15912,7 @@
         <v>41</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>39</v>
@@ -15959,985 +15933,15 @@
         <v>41</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>558</v>
+        <v>484</v>
       </c>
       <c r="AN114" t="s" s="2">
-        <v>559</v>
+        <v>485</v>
       </c>
       <c r="AO114" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AP114" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>560</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E115" s="2"/>
-      <c r="F115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q115" s="2"/>
-      <c r="R115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN115" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AO115" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP115" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="B116" t="s" s="2">
-        <v>561</v>
-      </c>
-      <c r="C116" s="2"/>
-      <c r="D116" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="E116" s="2"/>
-      <c r="F116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O116" s="2"/>
-      <c r="P116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q116" s="2"/>
-      <c r="R116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN116" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AO116" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP116" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B117" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="C117" s="2"/>
-      <c r="D117" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="E117" s="2"/>
-      <c r="F117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M117" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O117" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="P117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q117" s="2"/>
-      <c r="R117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN117" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AO117" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP117" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C118" s="2"/>
-      <c r="D118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E118" s="2"/>
-      <c r="F118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="M118" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="O118" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="P118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q118" s="2"/>
-      <c r="R118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL118" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="AM118" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AN118" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AO118" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AP118" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="B119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="C119" s="2"/>
-      <c r="D119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E119" s="2"/>
-      <c r="F119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>571</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="P119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q119" s="2"/>
-      <c r="R119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL119" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="AM119" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="AN119" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP119" t="s" s="2">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C120" s="2"/>
-      <c r="D120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E120" s="2"/>
-      <c r="F120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="H120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K120" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O120" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="P120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q120" s="2"/>
-      <c r="R120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X120" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y120" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AN120" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="AO120" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP120" t="s" s="2">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="B121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="C121" s="2"/>
-      <c r="D121" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K121" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>579</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>581</v>
-      </c>
-      <c r="O121" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="P121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q121" s="2"/>
-      <c r="R121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X121" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="Y121" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL121" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="AM121" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP121" t="s" s="2">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="B122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="C122" s="2"/>
-      <c r="D122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="E122" s="2"/>
-      <c r="F122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="J122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="L122" t="s" s="2">
-        <v>584</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O122" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="P122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Q122" s="2"/>
-      <c r="R122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AF122" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="AG122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH122" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AL122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AP122" t="s" s="2">
         <v>41</v>
       </c>
     </row>
